--- a/data/trans_bre/P37A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-13,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,47</t>
+          <t>-13,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>-14,75%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-14,92%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-15,47%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 7,28</t>
+          <t>-21,85; 10,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 2,87</t>
+          <t>-27,11; 1,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,14; -1,91</t>
+          <t>-31,75; 1,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 9,47</t>
+          <t>-42,55; 7,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 2,84</t>
+          <t>-24,11; 15,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -1,85</t>
+          <t>-28,49; 1,4</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-33,88; 1,47</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-47,14; 9,98</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>-10,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,54</t>
+          <t>-16,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,88</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-13,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,75%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,86%</t>
+          <t>-21,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-14,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-17,68%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -0,56</t>
+          <t>-20,29; -1,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,38; -3,69</t>
+          <t>-27,1; -5,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,11; -0,38</t>
+          <t>-21,88; 3,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,7; -0,72</t>
+          <t>-24,44; -3,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,21; -4,62</t>
+          <t>-23,96; -2,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -0,58</t>
+          <t>-33,27; -7,46</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-27,59; 5,76</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-30,73; -4,4</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,21</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,74</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>-15,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,52%</t>
+          <t>-2,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,16%</t>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-11,44%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-19,92%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 0,53</t>
+          <t>-11,92; 12,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,48; -1,77</t>
+          <t>-10,84; 9,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,47; -7,68</t>
+          <t>-18,8; 1,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 0,68</t>
+          <t>-26,08; -3,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,33; -2,62</t>
+          <t>-14,79; 17,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,95; -10,62</t>
+          <t>-13,81; 14,75</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-23,44; 2,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-32,52; -5,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,64; -5,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -4,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -6,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,92; -6,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-6,67</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-10,11</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-10,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-13,91</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-8,44%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-13,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-13,32%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-17,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-13,48; 0,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-16,58; -3,09</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-16,96; -1,59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-22,08; -6,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-16,26; 0,45</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-20,64; -4,07</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-20,96; -2,3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-27,32; -8,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P37A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-13,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-13,4</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-12,43</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-5,59%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-14,75%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-14,92%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-15,47%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.161197164756802</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-12.94221412391991</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-12.50302234911456</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-8.890127953406102</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.03879291977883476</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1414485546033142</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1388305817324408</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1109815304357534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-21,85; 10,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-27,11; 1,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-31,75; 1,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-42,55; 7,1</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-24,11; 15,34</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-28,49; 1,4</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-33,88; 1,47</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-47,14; 9,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.78447783893493</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-26.66325842415807</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-30.53908710774738</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-36.58571766890956</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2267734048417722</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2840421903646099</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3257473288055641</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4112310501853436</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.5554797455766</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.765669594009631</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.030852051784935</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.42203256030329</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1984596147989225</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.02254766780969286</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.02282674742555688</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1699019412996848</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-10,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-16,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-10,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-13,6</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-13,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-21,21%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-14,85%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-17,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-20,29; -1,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-27,1; -5,31</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,88; 3,77</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,44; -3,07</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-23,96; -2,74</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-33,27; -7,46</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-27,59; 5,76</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-30,73; -4,4</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-11.09830415554612</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-16.41272228744024</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-12.21205117129269</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-14.57500731259808</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1377631947050309</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2123141684454941</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1643565880721972</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1881912751569766</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,21</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,8</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-15,32</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-2,94%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-11,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-19,92%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-21.18759408656308</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-28.13318391196976</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-23.52274714805209</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-25.19956383033208</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2529205904328379</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3401317684843574</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2935918384401449</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3139195625131638</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,92; 12,06</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; 9,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,8; 1,47</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-26,08; -3,98</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-14,79; 17,77</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-13,81; 14,75</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-23,44; 2,1</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-32,52; -5,21</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-1.812088935916687</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-5.023694576990422</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.692075240411665</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-4.124774642060826</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.02659704692797935</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.07090871240525282</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.01483379141906996</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.055730147192585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.602936832013991</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.42162668535204</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.099117282373005</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-15.68610003400137</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.03472016978073822</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.01946801207768387</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1177487444270634</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2032309018252229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.14177674109586</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.93682344341589</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-18.97484513293539</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-26.6994195372323</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1622845366954973</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1419769076600445</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2339463862104404</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3305298041956289</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.0148825032422</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.04172002461384</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.735480387911975</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-4.24370383656471</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1633727063552407</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1551242612771459</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.02285236285880641</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.06039715833552197</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,67</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-10,11</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-10,26</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-13,91</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-8,44%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-13,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-13,32%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-17,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,48; 0,51</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-16,58; -3,09</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; -1,59</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-22,08; -6,46</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-16,26; 0,45</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-20,64; -4,07</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-20,96; -2,3</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-27,32; -8,92</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-6.686545114825693</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-9.872948267723524</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-10.73555666924985</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-13.75548942069411</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.08513317354187629</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.127216758174854</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1384633049143076</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1767903276405036</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-13.976670934895</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-16.2339740098352</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-17.3226459501678</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-21.82885686846663</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1708699183181401</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2025834006840121</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.215003715334266</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2699601595820441</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.1975527501534259</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-2.595236000201206</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-2.558873236474655</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-6.289334138713065</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.001848196459614075</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.03559798217449631</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.0360649661385799</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.08574209667266021</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
